--- a/biology/Zoologie/Gerbillus_grobbeni/Gerbillus_grobbeni.xlsx
+++ b/biology/Zoologie/Gerbillus_grobbeni/Gerbillus_grobbeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus grobbeni ou Gerbillus (Hendecapleura) grobbeni est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés dont la présence n'est connue que sur la côte libyenne.
 </t>
